--- a/data/testcase_demo2.xlsx
+++ b/data/testcase_demo2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\clink2_autotest\data\daily_c2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Clink2_openapi\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="34">
   <si>
     <t>case_id</t>
   </si>
@@ -620,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -635,13 +635,12 @@
     <col min="5" max="5" width="47.109375" style="9" customWidth="1"/>
     <col min="6" max="6" width="13" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.44140625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" style="9" customWidth="1"/>
-    <col min="9" max="9" width="15.77734375" customWidth="1"/>
-    <col min="10" max="10" width="15.77734375" style="9" customWidth="1"/>
-    <col min="11" max="11" width="29.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="29.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -664,22 +663,19 @@
         <v>6</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -701,16 +697,13 @@
       <c r="G2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:12" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="10"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -730,15 +723,12 @@
       <c r="G3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="9"/>
-      <c r="K3" s="4" t="s">
+      <c r="H3" s="9"/>
+      <c r="J3" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -760,16 +750,13 @@
       <c r="G4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="10" t="s">
+      <c r="H4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:12" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="10"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -789,13 +776,10 @@
       <c r="G5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="9"/>
-      <c r="K5" s="9"/>
-    </row>
-    <row r="6" spans="1:12" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:11" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -815,13 +799,10 @@
       <c r="G6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="9"/>
-      <c r="K6" s="9"/>
-    </row>
-    <row r="7" spans="1:12" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="9"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:11" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -841,13 +822,10 @@
       <c r="G7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="9"/>
-      <c r="K7" s="9"/>
-    </row>
-    <row r="8" spans="1:12" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="9"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:11" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
@@ -855,9 +833,8 @@
       <c r="E8" s="7"/>
       <c r="F8" s="4"/>
       <c r="G8" s="10"/>
-      <c r="H8"/>
-    </row>
-    <row r="9" spans="1:12" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:11" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
@@ -865,9 +842,8 @@
       <c r="E9" s="7"/>
       <c r="F9" s="4"/>
       <c r="G9" s="10"/>
-      <c r="H9"/>
-    </row>
-    <row r="10" spans="1:12" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:11" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
@@ -875,7 +851,6 @@
       <c r="E10" s="7"/>
       <c r="F10" s="4"/>
       <c r="G10" s="10"/>
-      <c r="H10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
